--- a/ergo/BoM/Costs/ergo56-bom.xlsx
+++ b/ergo/BoM/Costs/ergo56-bom.xlsx
@@ -394,7 +394,7 @@
     <t>Created:</t>
   </si>
   <si>
-    <t>2023-12-21 13:29:15</t>
+    <t>2023-12-21 16:17:44</t>
   </si>
   <si>
     <t>KiCost® v1.1.18 + KiBot v1.6.3</t>
